--- a/archivos_auxiliares/Gráficas.xlsx
+++ b/archivos_auxiliares/Gráficas.xlsx
@@ -71,7 +71,7 @@
     </textPr>
   </connection>
   <connection id="3" name="statsParaleloVariasSemillas" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/jorgesanmartinlopez/Downloads/statsParaleloVariasSemillas.txt" thousands="." tab="0" delimiter=",">
+    <textPr fileType="mac" sourceFile="/Users/jorgesanmartinlopez/Downloads/statsParaleloVariasSemillas.txt" thousands="." tab="0" delimiter=",">
       <textFields count="8">
         <textField/>
         <textField/>
@@ -948,11 +948,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-695783840"/>
-        <c:axId val="-695640800"/>
+        <c:axId val="-654010976"/>
+        <c:axId val="-653808240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-695783840"/>
+        <c:axId val="-654010976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -995,7 +995,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-695640800"/>
+        <c:crossAx val="-653808240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1003,7 +1003,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-695640800"/>
+        <c:axId val="-653808240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1053,7 +1053,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-695783840"/>
+        <c:crossAx val="-654010976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1608,11 +1608,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-689440272"/>
-        <c:axId val="-689437200"/>
+        <c:axId val="-654302352"/>
+        <c:axId val="-653393168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-689440272"/>
+        <c:axId val="-654302352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1658,7 +1658,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1725,7 +1724,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-689437200"/>
+        <c:crossAx val="-653393168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1733,7 +1732,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-689437200"/>
+        <c:axId val="-653393168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1839,7 +1838,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-689440272"/>
+        <c:crossAx val="-654302352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2225,11 +2224,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-742076640"/>
-        <c:axId val="-693745024"/>
+        <c:axId val="-653693952"/>
+        <c:axId val="-653689936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-742076640"/>
+        <c:axId val="-653693952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2275,7 +2274,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2342,7 +2340,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-693745024"/>
+        <c:crossAx val="-653689936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2350,7 +2348,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-693745024"/>
+        <c:axId val="-653689936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2456,7 +2454,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-742076640"/>
+        <c:crossAx val="-653693952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3011,11 +3009,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-745846944"/>
-        <c:axId val="-746502576"/>
+        <c:axId val="-654207040"/>
+        <c:axId val="-654293696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-745846944"/>
+        <c:axId val="-654207040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3061,7 +3059,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3128,7 +3125,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-746502576"/>
+        <c:crossAx val="-654293696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3136,7 +3133,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-746502576"/>
+        <c:axId val="-654293696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3242,7 +3239,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-745846944"/>
+        <c:crossAx val="-654207040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3628,11 +3625,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-695971904"/>
-        <c:axId val="-688058640"/>
+        <c:axId val="-653870368"/>
+        <c:axId val="-653546080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-695971904"/>
+        <c:axId val="-653870368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3678,7 +3675,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3745,7 +3741,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-688058640"/>
+        <c:crossAx val="-653546080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3753,7 +3749,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-688058640"/>
+        <c:axId val="-653546080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3859,7 +3855,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-695971904"/>
+        <c:crossAx val="-653870368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3989,7 +3985,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4252,11 +4247,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-738762384"/>
-        <c:axId val="-738755216"/>
+        <c:axId val="-653400640"/>
+        <c:axId val="-653397520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-738762384"/>
+        <c:axId val="-653400640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4302,7 +4297,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4369,7 +4363,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-738755216"/>
+        <c:crossAx val="-653397520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4377,7 +4371,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-738755216"/>
+        <c:axId val="-653397520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4482,7 +4476,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-738762384"/>
+        <c:crossAx val="-653400640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4882,11 +4876,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-719850896"/>
-        <c:axId val="-719817824"/>
+        <c:axId val="-718291584"/>
+        <c:axId val="-718333408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-719850896"/>
+        <c:axId val="-718291584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4932,7 +4926,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4999,7 +4992,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-719817824"/>
+        <c:crossAx val="-718333408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5007,7 +5000,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-719817824"/>
+        <c:axId val="-718333408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5112,7 +5105,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-719850896"/>
+        <c:crossAx val="-718291584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5512,11 +5505,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-718254192"/>
-        <c:axId val="-718250432"/>
+        <c:axId val="-738761552"/>
+        <c:axId val="-742266944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-718254192"/>
+        <c:axId val="-738761552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5562,7 +5555,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5629,7 +5621,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-718250432"/>
+        <c:crossAx val="-742266944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5637,7 +5629,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-718250432"/>
+        <c:axId val="-742266944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5743,7 +5735,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-718254192"/>
+        <c:crossAx val="-738761552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6134,11 +6126,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-718218608"/>
-        <c:axId val="-718214848"/>
+        <c:axId val="-741334288"/>
+        <c:axId val="-741331168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-718218608"/>
+        <c:axId val="-741334288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6184,7 +6176,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6251,7 +6242,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-718214848"/>
+        <c:crossAx val="-741331168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6259,7 +6250,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-718214848"/>
+        <c:axId val="-741331168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6365,7 +6356,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-718218608"/>
+        <c:crossAx val="-741334288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6756,11 +6747,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-719788112"/>
-        <c:axId val="-719784352"/>
+        <c:axId val="-653293824"/>
+        <c:axId val="-653290704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-719788112"/>
+        <c:axId val="-653293824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6806,7 +6797,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6873,7 +6863,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-719784352"/>
+        <c:crossAx val="-653290704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6881,7 +6871,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-719784352"/>
+        <c:axId val="-653290704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6987,7 +6977,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-719788112"/>
+        <c:crossAx val="-653293824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7462,11 +7452,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-719729760"/>
-        <c:axId val="-719725488"/>
+        <c:axId val="-653495648"/>
+        <c:axId val="-653663712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-719729760"/>
+        <c:axId val="-653495648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7512,7 +7502,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7579,7 +7568,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-719725488"/>
+        <c:crossAx val="-653663712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7587,7 +7576,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-719725488"/>
+        <c:axId val="-653663712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7693,7 +7682,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-719729760"/>
+        <c:crossAx val="-653495648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8229,11 +8218,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-797863600"/>
-        <c:axId val="-746189312"/>
+        <c:axId val="-654032992"/>
+        <c:axId val="-654030288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-797863600"/>
+        <c:axId val="-654032992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8279,7 +8268,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8346,7 +8334,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-746189312"/>
+        <c:crossAx val="-654030288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8354,7 +8342,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-746189312"/>
+        <c:axId val="-654030288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8460,7 +8448,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-797863600"/>
+        <c:crossAx val="-654032992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9271,11 +9259,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-713834592"/>
-        <c:axId val="-713830832"/>
+        <c:axId val="-653984240"/>
+        <c:axId val="-653981536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-713834592"/>
+        <c:axId val="-653984240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9321,7 +9309,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9388,7 +9375,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-713830832"/>
+        <c:crossAx val="-653981536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9396,7 +9383,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-713830832"/>
+        <c:axId val="-653981536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9502,7 +9489,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-713834592"/>
+        <c:crossAx val="-653984240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17603,7 +17590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F27" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
